--- a/BCS_template.xlsx
+++ b/BCS_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\ProgramingProjects\vc_extract_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\driggerst\Python\vc_extract_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF88589-F9EF-41A8-B31A-C09CA68D9837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38910" yWindow="4035" windowWidth="27945" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="New Vendors" sheetId="1" r:id="rId1"/>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -445,11 +444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -530,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -561,10 +560,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73279012-FA0D-4144-9747-B9FB1AB2525D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/BCS_template.xlsx
+++ b/BCS_template.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Risk Category</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Vendor Contact Name</t>
+  </si>
+  <si>
+    <t>Updated Vendor ID</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,6 +134,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +452,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,29 +537,30 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
